--- a/biology/Zoologie/Eratigena/Eratigena.xlsx
+++ b/biology/Zoologie/Eratigena/Eratigena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eratigena est un genre d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eratigena est un genre d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique et au Laos[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique et au Laos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 28/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 28/02/2024) :
 Eratigena agrestis (Walckenaer, 1802)
 Eratigena arganoi (Brignoli, 1971)
 Eratigena atrica (C. L. Koch, 1843)
@@ -611,7 +627,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Bolzern, Burckhardt et Hänggi en 2013 dans les Agelenidae.
 </t>
@@ -642,9 +660,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eratigena est l'anagramme de Tegenaria[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eratigena est l'anagramme de Tegenaria.
 </t>
         </is>
       </c>
@@ -673,7 +693,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bolzern, Burckhardt &amp; Hänggi, 2013 : « Phylogeny and taxonomy of European funnel-web spiders of the Tegenaria-Malthonica complex (Araneae: Agelenidae) based upon morphological and molecular data. » Zoological Journal of the Linnean Society, vol. 168, no 4, p. 723-848.</t>
         </is>
